--- a/TestData/LoginDataWithOutExp.xlsx
+++ b/TestData/LoginDataWithOutExp.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="17520" windowHeight="9935" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="18468" windowHeight="9215" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -47,6 +47,27 @@
       <name val="Calibri"/>
       <charset val="0"/>
       <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -54,30 +75,46 @@
     <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="Calibri"/>
       <charset val="0"/>
       <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -91,59 +128,6 @@
     <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <i val="1"/>
       <color rgb="FF7F7F7F"/>
       <sz val="11"/>
@@ -159,16 +143,32 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -207,55 +207,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -267,115 +375,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -386,6 +386,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -400,17 +424,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -463,26 +476,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -491,7 +491,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -512,127 +512,127 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1038,7 +1038,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4" outlineLevelRow="4"/>

--- a/TestData/LoginDataWithOutExp.xlsx
+++ b/TestData/LoginDataWithOutExp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>userName</t>
   </si>
@@ -31,7 +31,13 @@
     <t>admin</t>
   </si>
   <si>
+    <t>Test passed</t>
+  </si>
+  <si>
     <t>xfgdf</t>
+  </si>
+  <si>
+    <t>Test failed</t>
   </si>
   <si>
     <t>sxgdf@gmail.com</t>
@@ -48,9 +54,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -76,16 +82,71 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -106,14 +167,36 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -121,14 +204,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
@@ -136,77 +211,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,13 +233,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -245,25 +365,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -275,139 +395,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,30 +424,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -454,27 +436,19 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -497,9 +471,41 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -523,15 +529,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -544,127 +550,127 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1004,7 +1010,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="2"/>
@@ -1032,34 +1038,42 @@
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2"/>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3"/>
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4"/>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5"/>
     </row>
   </sheetData>
   <hyperlinks>
